--- a/JP (Exclude Game)/Dialog/Drama/_chara.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_chara.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="chara" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t xml:space="preserve">refAction2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これを受け取って{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want you to have this.</t>
   </si>
 </sst>
 </file>
@@ -613,12 +622,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I113" activeCellId="0" sqref="I113"/>
+      <selection pane="bottomLeft" activeCell="I131" activeCellId="0" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -671,7 +680,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="1" t="n">
         <f aca="false">MAX(H4:H1048576)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,6 +1324,27 @@
         <v>25</v>
       </c>
     </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/JP (Exclude Game)/Dialog/Drama/_chara.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/_chara.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t xml:space="preserve">I want you to have this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こんなものを作ってみたの{だが}、良かったら食べて{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made this... care to try?</t>
   </si>
 </sst>
 </file>
@@ -622,12 +631,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I131" activeCellId="0" sqref="I131"/>
+      <selection pane="bottomLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,7 +689,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H2" s="1" t="n">
         <f aca="false">MAX(H4:H1048576)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,6 +1354,27 @@
         <v>25</v>
       </c>
     </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
